--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_KhoiNguyen_Week33.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week33/BSS_EffortLog_KhoiNguyen_Week33.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -48,32 +48,44 @@
     <t>Mentor Meeting</t>
   </si>
   <si>
-    <t>Training Technical</t>
+    <t>Test release 1</t>
   </si>
   <si>
-    <t>Create unit test for "News" function</t>
+    <t>Report test release 1</t>
   </si>
   <si>
-    <t>13/3/2017</t>
+    <t>Modify "Architecture and design" document-static view level 2</t>
   </si>
   <si>
-    <t>14/3/2017</t>
+    <t>Modify "Detail design" document</t>
   </si>
   <si>
-    <t>17/3/2017</t>
+    <t>15/5/2017</t>
   </si>
   <si>
-    <t>18/3/2017</t>
+    <t>16/5/2017</t>
   </si>
   <si>
-    <t>WEEK: 24</t>
+    <t>17/5/2017</t>
+  </si>
+  <si>
+    <t>18/5/2017</t>
+  </si>
+  <si>
+    <t>19/5/2017</t>
+  </si>
+  <si>
+    <t>20/5/2017</t>
+  </si>
+  <si>
+    <t>WEEK: 33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +129,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,11 +189,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -201,6 +233,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,7 +563,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +613,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -676,11 +719,11 @@
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>11</v>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
@@ -718,16 +761,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G6" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -759,25 +802,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H7" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -797,28 +840,28 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H8" s="9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -834,20 +877,32 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -863,20 +918,32 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15">
+        <v>8</v>
+      </c>
+      <c r="H10" s="15">
+        <v>7</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -901,11 +968,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -930,11 +997,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
